--- a/biology/Botanique/Calligonum/Calligonum.xlsx
+++ b/biology/Botanique/Calligonum/Calligonum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Calligonum est un genre regroupant près de quatre-vingts plantes de la famille des Polygonaceae, vivant dans la région méditerranéenne, en Asie et en Amérique du Nord.
@@ -512,9 +524,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les plantes du genre Calligonum sont des arbustes à ramifications diffuses mais irrégulières, à branches ligneuses flexibles. Les feuilles sont simples, opposées, presque sessiles, linéaires ou en écailles, parfois absentes ou très petites, absente ou filiformes, distinctes ou unies avec de courtes ochrées membraneuses. Les fleurs sont bisexuées, solitaires ou en inflorescences axillaires libres. Les fleurs ont des périanthes persistants à 5 parties qui non accrescent dans les fruits, et 10 à 18 étamines avec des filaments à la base. L'ovaire est tétragone[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes du genre Calligonum sont des arbustes à ramifications diffuses mais irrégulières, à branches ligneuses flexibles. Les feuilles sont simples, opposées, presque sessiles, linéaires ou en écailles, parfois absentes ou très petites, absente ou filiformes, distinctes ou unies avec de courtes ochrées membraneuses. Les fleurs sont bisexuées, solitaires ou en inflorescences axillaires libres. Les fleurs ont des périanthes persistants à 5 parties qui non accrescent dans les fruits, et 10 à 18 étamines avec des filaments à la base. L'ovaire est tétragone.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (16 juillet 2015)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (16 juillet 2015) :
 Calligonum acanthopterum Borszcz.
 Calligonum alashanicum Losinskaja
 Calligonum alatosetosum Maassoumi &amp; Kazempour
@@ -614,7 +630,7 @@
 Calligonum zaidamense Losinskaja
 Calligonum zaissano-muravljanskyi Yu. D. Soskov
 Calligonum zakirovii (Chalkuziev) Czer.
-Selon GRIN            (16 juillet 2015)[4] :
+Selon GRIN            (16 juillet 2015) :
 Calligonum aphyllum (Pall.) Gürke
 Calligonum arborescens Litv.
 Calligonum azel Maire
@@ -631,12 +647,12 @@
 Calligonum setosum Litv.
 Calligonum triste Litv.
 Calligonum turbineum Pavlov
-Selon ITIS      (16 juillet 2015)[5] :
+Selon ITIS      (16 juillet 2015) :
 Calligonum aphyllum (Pall.) Gürke
 Calligonum caput-medusae Schrenk
 Calligonum leucocladum (Schrenk) Bunge
 Calligonum microcarpum I.G. Borshch.
-Selon NCBI  (16 juillet 2015)[6] :
+Selon NCBI  (16 juillet 2015) :
 Calligonum aphyllum
 Calligonum arborescens
 Calligonum arich
@@ -669,7 +685,7 @@
 Calligonum trifarium
 Calligonum yengisaricum
 Calligonum zaidamense
-Selon The Plant List            (16 juillet 2015)[7] :
+Selon The Plant List            (16 juillet 2015) :
 Calligonum acanthopterum I.G.Borshch.
 Calligonum aciferum Godw. &amp; Nardina
 Calligonum aculeatum (Litv.) Mattei
@@ -828,7 +844,7 @@
 Calligonum zaidamense Losinsk.
 Calligonum zaissanomuravljanskyi Soskov
 Calligonum zakirovii (Khalk.) Czerep.
-Selon Tropicos                                           (16 juillet 2015)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (16 juillet 2015) (Attention liste brute contenant possiblement des synonymes) :
 Calligonum acanthopterum I.G. Borshch.
 Calligonum aciferum Godw. &amp; Nardina
 Calligonum aculeatum Mattei
@@ -1023,7 +1039,7 @@
 Calligonum × spinulosum Drobow
 Calligonum × zaissano-muravljanskyi Soskov
 Calligonum × zaissanomuravljanskyi Soskov
-Selon World Register of Marine Species                               (16 juillet 2015)[8] :
+Selon World Register of Marine Species                               (16 juillet 2015) :
 Calligonum comosum L'Herit
 </t>
         </is>
